--- a/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
+++ b/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.253508774251516</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.902246730928649</v>
+        <v>0.097753269071351</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0506094126029045</v>
+        <v>0.949390587397095</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0002972657413284</v>
+        <v>0.999702734258672</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.486337908737483</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0153846153846154</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.353846153846154</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0215416223225468</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0230265038591296</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.018978422678526</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.851428571428571</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0344877203906404</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0664873946214451</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0081239514527399</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.349774040473027</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.570236080159244</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.191011235955056</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0001999178981937</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001425644028103</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.436087206477377</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0112359550561798</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7752808988764049</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>635.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.04980485869814</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-9.679040736771411</v>
+      </c>
+      <c r="M31" t="n">
+        <v>14.9081632653061</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.165193526152344</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0805357993546052</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.556213017751479</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.437869822485207</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.304023595991787</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.134615384615385</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001107825295723</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.589290515343298</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0880503144654088</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.817610062893082</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9717</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0130446428571429</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0045931642122938</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999999906414</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.660919540229885</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.445</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0516784573254222</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0392788239760923</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0640934482374272</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6941364315033201</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7495908506150381</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.949438202247191</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0028923136712151</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0115944183181617</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0040270558845001</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.29171090985528</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.825525527642504</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.803370786516854</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.008265934439215699</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0201083981559864</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.004997881613453</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.607789297001161</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0013793235539751</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.410112359550562</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.000664695177434</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0002836894975536</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.001003434065934</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.70434660880521</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.940993451005152</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.796610169491525</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0346045386904763</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0799762786980447</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0008580414044125</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.26756551979767</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
+++ b/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.843418060088771</v>
+        <v>0.279092324711329</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.537037037037037</v>
+        <v>0.5625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.070511583011583</v>
+        <v>-0.0376287774725275</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0402327467553863</v>
+        <v>-0.292118827973381</v>
       </c>
       <c r="M2" t="n">
-        <v>0.192330634558668</v>
+        <v>0.122141325422198</v>
       </c>
       <c r="N2" t="n">
-        <v>4.14774017715194</v>
+        <v>-2.21345749838397</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.746491225748484</v>
+        <v>0.97269556738393</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.67</v>
+        <v>9.734999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0356719745222931</v>
+        <v>0.07951741654571851</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.08183948107886591</v>
+        <v>0.0100283112345126</v>
       </c>
       <c r="M3" t="n">
-        <v>0.115823011151475</v>
+        <v>0.148030859753588</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368893221533538</v>
+        <v>0.816819892611387</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.424568568188753</v>
+        <v>0.473850397761773</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.423728813559322</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0010870535714285</v>
+        <v>-0.0007653571715068</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0012260673240839</v>
+        <v>0.0008869947085059</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.307240417026594</v>
+        <v>0.572654726449532</v>
       </c>
       <c r="G5" t="n">
         <v>0.0338983050847458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.813559322033898</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="K5" t="n">
-        <v>27.4624060150376</v>
+        <v>-3.47857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>-61.4419305013612</v>
+        <v>-94.607316655218</v>
       </c>
       <c r="M5" t="n">
-        <v>121.271155725692</v>
+        <v>79.2854696691636</v>
       </c>
       <c r="N5" t="n">
-        <v>3.71113594797805</v>
+        <v>-0.453529521326132</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.920486927534905</v>
+        <v>0.950047223009886</v>
       </c>
       <c r="G6" t="n">
-        <v>0.403846153846154</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.615384615384615</v>
+        <v>0.537037037037037</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0121916191836673</v>
+        <v>0.0104403644236398</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0023138894763402</v>
+        <v>-0.0013094075331326</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.990051592894315</v>
+        <v>0.959415161468433</v>
       </c>
       <c r="G7" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H7" t="n">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.005</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.000648181011535</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0010671447272091</v>
+        <v>-0.0008921317525819</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-12.963620230701</v>
+        <v>-7.73015873015873</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.891269865905308</v>
+        <v>0.0557076182139486</v>
       </c>
       <c r="G8" t="n">
         <v>0.0338983050847458</v>
       </c>
       <c r="H8" t="n">
-        <v>0.864406779661017</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.959</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.07161764705882349</v>
+        <v>0.115389522775611</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.165912089204806</v>
+        <v>-0.0006084697716096</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008878147440582899</v>
+        <v>0.218351811500158</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.4679506839232</v>
+        <v>10.885804035435</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.097753269071351</v>
+        <v>0.0001059383983309</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.859649122807018</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.66</v>
+        <v>7.61</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0509423144257703</v>
+        <v>-0.133744652662495</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.109991268652458</v>
+        <v>-0.186616734209989</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0109733610799399</v>
+        <v>-0.076664363883655</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.665043269265931</v>
+        <v>-1.75748558032188</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.825927687523469</v>
+        <v>0.0484690942141995</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.082</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0767770408163265</v>
+        <v>0.127414547146402</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.162803072977467</v>
+        <v>6.84774109297663e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0086446874112625</v>
+        <v>0.215097680333135</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.09584480742389</v>
+        <v>11.5831406496729</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.843505623260564</v>
+        <v>0.12348928863963</v>
       </c>
       <c r="G11" t="n">
-        <v>0.220338983050847</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.271186440677966</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.09851080432172871</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.624622596683701</v>
+        <v>-0.0642863330243201</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.216350694394688</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>7.29709661642435</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.952401201978179</v>
+        <v>0.641599741502753</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.864406779661017</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>0.045</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.124855867346939</v>
+        <v>-0.0007407200616095</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.217425956241678</v>
+        <v>-0.0033342914371393</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0066590765276334</v>
+        <v>0.0012784370822426</v>
       </c>
       <c r="N12" t="n">
-        <v>-9.831170657239269</v>
+        <v>-1.64604458135456</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.470929917461827</v>
+        <v>0.314205905048645</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.711864406779661</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.045</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0769847775175644</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0016440783525543</v>
+        <v>-0.184770240206475</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0012115575807924</v>
+        <v>0.342523233312272</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.96095298144478</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.883033486550386</v>
+        <v>0.952097202443448</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.932203389830508</v>
+        <v>0.493827160493827</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.135463598901099</v>
+        <v>0.0494594724682326</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.405953296264041</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0554551744605735</v>
+        <v>0.101760409994517</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.52912648575914</v>
+        <v>3.19093370762791</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.965533086308284</v>
+        <v>0.994842644976681</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.465116279069767</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6</v>
+        <v>9.76</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0451762523191095</v>
+        <v>0.0467874576738913</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0200127819804824</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0882690634812793</v>
+        <v>0.080351853241819</v>
       </c>
       <c r="N15" t="n">
-        <v>2.82351576994434</v>
+        <v>0.479379689281673</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.949390587397095</v>
+        <v>0.253875504149574</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.907563025210084</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.67</v>
+        <v>0.013</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0389648592484345</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.0001347957925245</v>
       </c>
       <c r="M16" t="n">
-        <v>0.070090677019457</v>
+        <v>0.0003339889147332</v>
       </c>
       <c r="N16" t="n">
-        <v>0.402945804016903</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0051395945015407</v>
+        <v>0.0357637863240003</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0.241666666666667</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004029233314947</v>
+        <v>27.4624060150376</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001320133432777</v>
+        <v>0.877194260285418</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0006659392996244</v>
+        <v>46.5286624203822</v>
       </c>
       <c r="N17" t="n">
-        <v>3.09941024226738</v>
+        <v>4.90400107411386</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0195425795061062</v>
+        <v>0.0065552129812055</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H18" t="n">
-        <v>0.775</v>
+        <v>0.4375</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>595</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>29.9112829845314</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.6563504057551</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>47.2070780133855</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.02710638395486</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,16 +2116,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0006411073353348</v>
+        <v>0.647716930265879</v>
       </c>
       <c r="G19" t="n">
-        <v>0.580357142857143</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.428571428571429</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0.005</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0001118402113095</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9060224466812949</v>
+        <v>0.060084193184265</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.158333333333333</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>1.125</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0073169950738916</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.000332347588717</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0381514284800378</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.6503995621237</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.253601992556345</v>
+        <v>0.909684871535386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.108333333333333</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.791666666666667</v>
+        <v>0.675213675213675</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9147</v>
+        <v>7.52</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000836195054945</v>
+        <v>0.0145750199521149</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0100222254315531</v>
+        <v>-0.0032036885779238</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0106741023697594</v>
+        <v>0.0329002702824655</v>
       </c>
       <c r="N21" t="n">
-        <v>0.09141741062042801</v>
+        <v>0.193816754682379</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999702734258672</v>
+        <v>0.0336171608555535</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H22" t="n">
-        <v>0.692307692307692</v>
+        <v>0.95</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.52</v>
+        <v>1.199</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0394119492003977</v>
+        <v>0.009409660842754301</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0208714285714287</v>
+        <v>0.0007128202508327</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0579761904761905</v>
+        <v>0.0357013674252703</v>
       </c>
       <c r="N22" t="n">
-        <v>0.524095069154225</v>
+        <v>0.784792397227222</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.173137135937223</v>
+        <v>0.09128126883673331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.95</v>
+        <v>0.841666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9805</v>
+        <v>1.385</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0129946633825944</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.005798258608229</v>
+        <v>-0.005307149181519</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0116516082388922</v>
+        <v>0.0442500405607057</v>
       </c>
       <c r="N23" t="n">
-        <v>0.511695087166785</v>
+        <v>0.938242843508621</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.840639805863111</v>
+        <v>0.0416499557982321</v>
       </c>
       <c r="G24" t="n">
-        <v>0.191666666666667</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.183333333333333</v>
+        <v>0.491666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0007108797197353</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.166704701049749</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.77719929933826</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.309745114454865</v>
+        <v>0.0596994334064653</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.289</v>
+        <v>2.51</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0059975369458127</v>
+        <v>0.06597290640394091</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0199998409404647</v>
+        <v>-0.0031895164413215</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0179068905613809</v>
+        <v>0.145740199735873</v>
       </c>
       <c r="N25" t="n">
-        <v>0.465286031482759</v>
+        <v>2.62840264557534</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.017814143965904</v>
+        <v>0.09143425765999499</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="H26" t="n">
-        <v>0.491666666666667</v>
+        <v>0.379032258064516</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009836175942549001</v>
+        <v>-0.0174803074806722</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001429549902152</v>
+        <v>-0.0456049619818785</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0017476076555023</v>
+        <v>0.00468685545289</v>
       </c>
       <c r="N26" t="n">
-        <v>2.45904398563734</v>
+        <v>-1.09251921754201</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.894682057265284</v>
+        <v>0.488243924271815</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.85</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.485</v>
+        <v>9.85</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0584633853541416</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.141902237912757</v>
+        <v>-0.0275946526828129</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0198311106274112</v>
+        <v>0.0217968349144562</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.35265132209826</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,43 +2916,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.486337908737483</v>
+        <v>0.334217780615176</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0153846153846154</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.353846153846154</v>
+        <v>0.191011235955056</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>0.013</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0215416223225468</v>
+        <v>-9.6859488217218e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0230265038591296</v>
+        <v>0.0002010981723591</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.018978422678526</v>
+        <v>0.304344592783601</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H29" t="n">
-        <v>0.851428571428571</v>
+        <v>0.786516853932584</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>9.859999999999999</v>
+        <v>623</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0344877203906404</v>
+        <v>2.44779857166427</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0664873946214451</v>
+        <v>-8.118314680556001</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0081239514527399</v>
+        <v>16.9941236876251</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.349774040473027</v>
+        <v>0.392905067682868</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,43 +3098,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.570236080159244</v>
+        <v>0.380192594639476</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.547058823529412</v>
       </c>
       <c r="H30" t="n">
-        <v>0.191011235955056</v>
+        <v>0.452941176470588</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001425644028103</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.436087206477377</v>
+        <v>0.271474874944163</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0112359550561798</v>
+        <v>0.154761904761905</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7752808988764049</v>
+        <v>0.125</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>635.5</v>
+        <v>0.004</v>
       </c>
       <c r="K31" t="n">
-        <v>1.04980485869814</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.679040736771411</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>14.9081632653061</v>
+        <v>9.99589490968801e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>0.165193526152344</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0805357993546052</v>
+        <v>0.124551931771666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.556213017751479</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.437869822485207</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>1.01725</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0041325703617708</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0019775502678612</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0199478438690742</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.406249236841572</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.304023595991787</v>
+        <v>0.999989672400652</v>
       </c>
       <c r="G33" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.134615384615385</v>
+        <v>0.634285714285714</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004</v>
+        <v>7.46</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0325100133511348</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0201239669421488</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001107825295723</v>
+        <v>0.0445609259699377</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.435791063688134</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.589290515343298</v>
+        <v>0.264598963510254</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0880503144654088</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.817610062893082</v>
+        <v>0.955056179775281</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9717</v>
+        <v>1.083</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0036373084563462</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0130446428571429</v>
+        <v>-0.0058141659442456</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0045931642122938</v>
+        <v>0.0123232936594337</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.335854889782666</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999999906414</v>
+        <v>0.482492126373916</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.660919540229885</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.445</v>
+        <v>1.385</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0516784573254222</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0392788239760923</v>
+        <v>-0.0149604718707576</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0640934482374272</v>
+        <v>0.0132939035486806</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6941364315033201</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7495908506150381</v>
+        <v>0.0065768463823119</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0168539325842697</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.949438202247191</v>
+        <v>0.410112359550562</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9915</v>
+        <v>0.039</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0028923136712151</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0115944183181617</v>
+        <v>0.0001985633294875</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0040270558845001</v>
+        <v>0.0010006849315068</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.29171090985528</v>
+        <v>1.46219900318261</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.825525527642504</v>
+        <v>0.785170180776137</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.803370786516854</v>
+        <v>0.831460674157303</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.36</v>
+        <v>2.82</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.008265934439215699</v>
+        <v>-0.020075365350354</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0201083981559864</v>
+        <v>-0.0692179997987574</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004997881613453</v>
+        <v>0.0292139129764893</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.607789297001161</v>
+        <v>-0.711892388310424</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangarangiora Trib at us Norsewood STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0013793235539751</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.410112359550562</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.000664695177434</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0002836894975536</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.001003434065934</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.70434660880521</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1874807</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5558313</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mangarangiora Trib at us Norsewood STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.940993451005152</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.796610169491525</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.0346045386904763</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0799762786980447</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0008580414044125</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-1.26756551979767</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1874807</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5558313</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
+++ b/trend_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -127,49 +127,46 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Very likely increasing</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -642,37 +639,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.279092324711329</v>
+        <v>0.041349545711127</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5625</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K2">
-        <v>-0.0376287774725275</v>
+        <v>-0.122293526785714</v>
       </c>
       <c r="L2">
-        <v>-0.292118827973381</v>
+        <v>-0.260917064705824</v>
       </c>
       <c r="M2">
-        <v>0.122141325422198</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.21345749838397</v>
+        <v>-7.64334542410714</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -687,19 +684,19 @@
         <v>5558313</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,31 +716,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.97269556738393</v>
+        <v>0.9992730428526</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.982758620689655</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.734999999999999</v>
+        <v>10.22</v>
       </c>
       <c r="K3">
-        <v>0.07951741654571851</v>
+        <v>0.165566620879121</v>
       </c>
       <c r="L3">
-        <v>0.0100283112345126</v>
+        <v>0.08981490429396401</v>
       </c>
       <c r="M3">
-        <v>0.148030859753588</v>
+        <v>0.298240869849557</v>
       </c>
       <c r="N3">
-        <v>0.816819892611387</v>
+        <v>1.62002564460979</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -758,19 +755,19 @@
         <v>5558313</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -787,34 +784,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.473850397761773</v>
+        <v>0.241399107828261</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H4">
-        <v>0.372881355932203</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0002484693877551</v>
       </c>
       <c r="L4">
-        <v>-0.0007653571715068</v>
+        <v>-0.0004127452047504</v>
       </c>
       <c r="M4">
-        <v>0.0008869947085059</v>
+        <v>0.0012963620230701</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.07057823129252</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -829,19 +826,19 @@
         <v>5558313</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,37 +858,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.572654726449532</v>
+        <v>0.465250853332333</v>
       </c>
       <c r="G5">
-        <v>0.0338983050847458</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H5">
-        <v>0.88135593220339</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>767</v>
+        <v>628</v>
       </c>
       <c r="K5">
-        <v>-3.47857142857143</v>
+        <v>3.09705069124424</v>
       </c>
       <c r="L5">
-        <v>-94.607316655218</v>
+        <v>-72.28711227456991</v>
       </c>
       <c r="M5">
-        <v>79.2854696691636</v>
+        <v>102.54055356429</v>
       </c>
       <c r="N5">
-        <v>-0.453529521326132</v>
+        <v>0.493160938096216</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1874807</v>
@@ -900,19 +897,19 @@
         <v>5558313</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,40 +926,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.950047223009886</v>
+        <v>0.689222858718898</v>
       </c>
       <c r="G6">
-        <v>0.481481481481481</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.537037037037037</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0104403644236398</v>
+        <v>0.0094294494353079</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0002637581363392</v>
       </c>
       <c r="L6">
-        <v>-0.0013094075331326</v>
+        <v>-0.0012879710010448</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0006228948899489</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-2.79717430109528</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1874807</v>
@@ -971,19 +968,19 @@
         <v>5558313</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,40 +997,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.959415161468433</v>
+        <v>0.784546939195471</v>
       </c>
       <c r="G7">
-        <v>0.0847457627118644</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H7">
-        <v>0.23728813559322</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K7">
-        <v>-0.0003865079365079</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0008921317525819</v>
+        <v>-0.0004787024901703</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-7.73015873015873</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1874807</v>
@@ -1042,19 +1039,19 @@
         <v>5558313</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0557076182139486</v>
+        <v>0.0083312472831073</v>
       </c>
       <c r="G8">
         <v>0.0338983050847458</v>
@@ -1086,25 +1083,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>0.959</v>
       </c>
       <c r="K8">
-        <v>0.115389522775611</v>
+        <v>0.0891650541487498</v>
       </c>
       <c r="L8">
-        <v>-0.0006084697716096</v>
+        <v>0.0456278476197313</v>
       </c>
       <c r="M8">
-        <v>0.218351811500158</v>
+        <v>0.173133186119397</v>
       </c>
       <c r="N8">
-        <v>10.885804035435</v>
+        <v>9.29771159006776</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1874807</v>
@@ -1113,19 +1110,19 @@
         <v>5558313</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1142,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0001059383983309</v>
+        <v>0.12560080157648</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.87719298245614</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.61</v>
+        <v>7.6</v>
       </c>
       <c r="K9">
-        <v>-0.133744652662495</v>
+        <v>-0.0338455598455596</v>
       </c>
       <c r="L9">
-        <v>-0.186616734209989</v>
+        <v>-0.0802907285770688</v>
       </c>
       <c r="M9">
-        <v>-0.076664363883655</v>
+        <v>0.0135231506001976</v>
       </c>
       <c r="N9">
-        <v>-1.75748558032188</v>
+        <v>-0.445336313757363</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1874807</v>
@@ -1184,16 +1181,16 @@
         <v>5558313</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0484690942141995</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1225,25 +1222,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="K10">
-        <v>0.127414547146402</v>
+        <v>0.09413859691033601</v>
       </c>
       <c r="L10">
-        <v>6.84774109297663E-05</v>
+        <v>0.0462879845627318</v>
       </c>
       <c r="M10">
-        <v>0.215097680333135</v>
+        <v>0.175017931691161</v>
       </c>
       <c r="N10">
-        <v>11.5831406496729</v>
+        <v>9.6059792765649</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1874807</v>
@@ -1252,19 +1249,19 @@
         <v>5558313</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.12348928863963</v>
+        <v>0.014976027900479</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1296,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="K11">
-        <v>0.09851080432172871</v>
+        <v>0.0532256330625896</v>
       </c>
       <c r="L11">
-        <v>-0.0642863330243201</v>
+        <v>0.0142744202234468</v>
       </c>
       <c r="M11">
-        <v>0.216350694394688</v>
+        <v>0.156689535023847</v>
       </c>
       <c r="N11">
-        <v>7.29709661642435</v>
+        <v>4.03224492898406</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
@@ -1323,19 +1320,19 @@
         <v>5558313</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,43 +1346,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>0.641599741502753</v>
+        <v>0.546873536865759</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.728813559322034</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>-0.0007407200616095</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0033342914371393</v>
+        <v>-0.0038363609936921</v>
       </c>
       <c r="M12">
-        <v>0.0012784370822426</v>
+        <v>0.0027973246911523</v>
       </c>
       <c r="N12">
-        <v>-1.64604458135456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1874807</v>
@@ -1394,19 +1391,19 @@
         <v>5558313</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,7 +1423,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.314205905048645</v>
+        <v>0.628166938449092</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1438,25 +1435,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K13">
-        <v>0.0769847775175644</v>
+        <v>-0.0411103896103896</v>
       </c>
       <c r="L13">
-        <v>-0.184770240206475</v>
+        <v>-0.259463554457018</v>
       </c>
       <c r="M13">
-        <v>0.342523233312272</v>
+        <v>0.172398899207519</v>
       </c>
       <c r="N13">
-        <v>2.96095298144478</v>
+        <v>-1.67797508613835</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <v>1874807</v>
@@ -1465,19 +1462,19 @@
         <v>5558313</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,37 +1494,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.952097202443448</v>
+        <v>0.809973753289475</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.493827160493827</v>
+        <v>0.51219512195122</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.55</v>
+        <v>1.505</v>
       </c>
       <c r="K14">
-        <v>0.0494594724682326</v>
+        <v>0.0235231264637002</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.0221740289518816</v>
       </c>
       <c r="M14">
-        <v>0.101760409994517</v>
+        <v>0.08108177570837539</v>
       </c>
       <c r="N14">
-        <v>3.19093370762791</v>
+        <v>1.56299843612626</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1874807</v>
@@ -1536,19 +1533,19 @@
         <v>5558313</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,37 +1565,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.994842644976681</v>
+        <v>0.9991748612871481</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.915966386554622</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.76</v>
+        <v>9.85</v>
       </c>
       <c r="K15">
-        <v>0.0467874576738913</v>
+        <v>0.06682918157228861</v>
       </c>
       <c r="L15">
-        <v>0.0200127819804824</v>
+        <v>0.0300914478578004</v>
       </c>
       <c r="M15">
-        <v>0.080351853241819</v>
+        <v>0.112463822889333</v>
       </c>
       <c r="N15">
-        <v>0.479379689281673</v>
+        <v>0.67846884844963</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>1874807</v>
@@ -1607,19 +1604,19 @@
         <v>5558313</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,19 +1633,19 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>0.253875504149574</v>
+        <v>0.437075099889322</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H16">
         <v>0.241666666666667</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0.013</v>
@@ -1657,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0001347957925245</v>
+        <v>-0.0002492476961588</v>
       </c>
       <c r="M16">
-        <v>0.0003339889147332</v>
+        <v>0.0003328105234756</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1669,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>1874807</v>
@@ -1678,19 +1675,19 @@
         <v>5558313</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1707,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0357637863240003</v>
+        <v>0.0564836279117944</v>
       </c>
       <c r="G17">
-        <v>0.0166666666666667</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H17">
-        <v>0.783333333333333</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="K17">
-        <v>27.4624060150376</v>
+        <v>22.785065760389</v>
       </c>
       <c r="L17">
-        <v>0.877194260285418</v>
+        <v>-0.6836756616649809</v>
       </c>
       <c r="M17">
-        <v>46.5286624203822</v>
+        <v>48.4614580990767</v>
       </c>
       <c r="N17">
-        <v>4.90400107411386</v>
+        <v>3.67501060651436</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1874807</v>
@@ -1749,19 +1746,19 @@
         <v>5558313</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1778,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0065552129812055</v>
+        <v>0.1875528404802</v>
       </c>
       <c r="G18">
-        <v>0.571428571428571</v>
+        <v>0.548672566371681</v>
       </c>
       <c r="H18">
-        <v>0.4375</v>
+        <v>0.451327433628319</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1811,7 +1808,7 @@
         <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q18">
         <v>1874807</v>
@@ -1820,19 +1817,19 @@
         <v>5558313</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1849,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0.647716930265879</v>
+        <v>0.902952967702411</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="H19">
-        <v>0.15</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0001118402113095</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1882,7 +1879,7 @@
         <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1874807</v>
@@ -1891,19 +1888,19 @@
         <v>5558313</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,37 +1920,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.060084193184265</v>
+        <v>0.153067152422159</v>
       </c>
       <c r="G20">
-        <v>0.0833333333333333</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H20">
-        <v>0.783333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.125</v>
+        <v>1.0095</v>
       </c>
       <c r="K20">
-        <v>0.0073169950738916</v>
+        <v>0.0059746455834242</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0120089976148166</v>
       </c>
       <c r="M20">
-        <v>0.0381514284800378</v>
+        <v>0.0311798311224703</v>
       </c>
       <c r="N20">
-        <v>0.6503995621237</v>
+        <v>0.591842058783974</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1874807</v>
@@ -1962,19 +1959,19 @@
         <v>5558313</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,31 +1991,31 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.909684871535386</v>
+        <v>0.901270299658344</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.675213675213675</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.52</v>
+        <v>7.56</v>
       </c>
       <c r="K21">
-        <v>0.0145750199521149</v>
+        <v>0.0128571970682626</v>
       </c>
       <c r="L21">
-        <v>-0.0032036885779238</v>
+        <v>-0.0035751754090553</v>
       </c>
       <c r="M21">
-        <v>0.0329002702824655</v>
+        <v>0.0298179932883773</v>
       </c>
       <c r="N21">
-        <v>0.193816754682379</v>
+        <v>0.170068744289187</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
@@ -2033,16 +2030,16 @@
         <v>5558313</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0336171608555535</v>
+        <v>0.13625232055016</v>
       </c>
       <c r="G22">
         <v>0.025</v>
@@ -2074,25 +2071,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.199</v>
+        <v>1.091</v>
       </c>
       <c r="K22">
-        <v>0.009409660842754301</v>
+        <v>0.008944897959183601</v>
       </c>
       <c r="L22">
-        <v>0.0007128202508327</v>
+        <v>-0.0119494249375409</v>
       </c>
       <c r="M22">
-        <v>0.0357013674252703</v>
+        <v>0.0312407489347502</v>
       </c>
       <c r="N22">
-        <v>0.784792397227222</v>
+        <v>0.81988065620382</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1874807</v>
@@ -2101,19 +2098,19 @@
         <v>5558313</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2130,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.09128126883673331</v>
+        <v>0.4274194371113</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.841666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.385</v>
+        <v>1.36</v>
       </c>
       <c r="K23">
-        <v>0.0129946633825944</v>
+        <v>0.0033340940209949</v>
       </c>
       <c r="L23">
-        <v>-0.005307149181519</v>
+        <v>-0.0282862915727508</v>
       </c>
       <c r="M23">
-        <v>0.0442500405607057</v>
+        <v>0.0196602424856927</v>
       </c>
       <c r="N23">
-        <v>0.938242843508621</v>
+        <v>0.245153972131983</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1874807</v>
@@ -2172,19 +2169,19 @@
         <v>5558313</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,13 +2201,13 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0416499557982321</v>
+        <v>0.186151928768531</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.491666666666667</v>
+        <v>0.5166666666666671</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2219,22 +2216,22 @@
         <v>0.04</v>
       </c>
       <c r="K24">
-        <v>0.0007108797197353</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0003194941185053</v>
       </c>
       <c r="M24">
-        <v>0.001497949419002</v>
+        <v>0.0010011263510432</v>
       </c>
       <c r="N24">
-        <v>1.77719929933826</v>
+        <v>0.833523505248743</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1874807</v>
@@ -2243,19 +2240,19 @@
         <v>5558313</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.0596994334064653</v>
+        <v>0.399377924711143</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2287,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.51</v>
+        <v>2.445</v>
       </c>
       <c r="K25">
-        <v>0.06597290640394091</v>
+        <v>0.0113185621320112</v>
       </c>
       <c r="L25">
-        <v>-0.0031895164413215</v>
+        <v>-0.0561222009072213</v>
       </c>
       <c r="M25">
-        <v>0.145740199735873</v>
+        <v>0.0800427986810668</v>
       </c>
       <c r="N25">
-        <v>2.62840264557534</v>
+        <v>0.462926876564874</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1874807</v>
@@ -2314,19 +2311,19 @@
         <v>5558313</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,37 +2343,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.09143425765999499</v>
+        <v>0.09444188664899</v>
       </c>
       <c r="G26">
-        <v>0.0161290322580645</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="H26">
-        <v>0.379032258064516</v>
+        <v>0.385245901639344</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>1.6</v>
+        <v>1.575</v>
       </c>
       <c r="K26">
-        <v>-0.0174803074806722</v>
+        <v>-0.0157639188605956</v>
       </c>
       <c r="L26">
-        <v>-0.0456049619818785</v>
+        <v>-0.0412390063119463</v>
       </c>
       <c r="M26">
-        <v>0.00468685545289</v>
+        <v>0.0071415244259005</v>
       </c>
       <c r="N26">
-        <v>-1.09251921754201</v>
+        <v>-1.00088373718067</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1874807</v>
@@ -2385,19 +2382,19 @@
         <v>5558313</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" t="s">
         <v>55</v>
-      </c>
-      <c r="W26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2414,34 +2411,34 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>0.488243924271815</v>
+        <v>0.8921122801545019</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.847457627118644</v>
+        <v>0.836158192090395</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.85</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0198775510204077</v>
       </c>
       <c r="L27">
-        <v>-0.0275946526828129</v>
+        <v>-0.0090254578850711</v>
       </c>
       <c r="M27">
-        <v>0.0217968349144562</v>
+        <v>0.0377568676025104</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.201597880531519</v>
       </c>
       <c r="O27" t="s">
         <v>39</v>
@@ -2456,19 +2453,19 @@
         <v>5558313</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2485,31 +2482,31 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.334217780615176</v>
+        <v>0.221456875817763</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H28">
-        <v>0.191011235955056</v>
+        <v>0.185393258426966</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0.013</v>
+        <v>0.0125</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-9.6859488217218E-05</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0002010981723591</v>
+        <v>0.0002489065771294</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2527,19 +2524,19 @@
         <v>5558313</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,37 +2556,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.304344592783601</v>
+        <v>0.147569678694565</v>
       </c>
       <c r="G29">
-        <v>0.0112359550561798</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H29">
-        <v>0.786516853932584</v>
+        <v>0.80225988700565</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="K29">
-        <v>2.44779857166427</v>
+        <v>5.38610100471226</v>
       </c>
       <c r="L29">
-        <v>-8.118314680556001</v>
+        <v>-3.80651947837578</v>
       </c>
       <c r="M29">
-        <v>16.9941236876251</v>
+        <v>19.9053894293356</v>
       </c>
       <c r="N29">
-        <v>0.392905067682868</v>
+        <v>0.897683500785377</v>
       </c>
       <c r="O29" t="s">
         <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q29">
         <v>1874807</v>
@@ -2598,19 +2595,19 @@
         <v>5558313</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.380192594639476</v>
+        <v>0.7502914894228619</v>
       </c>
       <c r="G30">
         <v>0.547058823529412</v>
@@ -2660,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1874807</v>
@@ -2669,19 +2666,19 @@
         <v>5558313</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,16 +2695,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.271474874944163</v>
+        <v>0.6524140069586321</v>
       </c>
       <c r="G31">
-        <v>0.154761904761905</v>
+        <v>0.146067415730337</v>
       </c>
       <c r="H31">
-        <v>0.125</v>
+        <v>0.117977528089888</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2719,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-8.32194121667806E-05</v>
       </c>
       <c r="M31">
-        <v>9.99589490968801E-05</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2731,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q31">
         <v>1874807</v>
@@ -2740,19 +2737,19 @@
         <v>5558313</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,37 +2769,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.124551931771666</v>
+        <v>0.226749381118301</v>
       </c>
       <c r="G32">
-        <v>0.0833333333333333</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="H32">
-        <v>0.80952380952381</v>
+        <v>0.803370786516854</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1.01725</v>
+        <v>0.9781</v>
       </c>
       <c r="K32">
-        <v>0.0041325703617708</v>
+        <v>0.0026503668467306</v>
       </c>
       <c r="L32">
-        <v>-0.0019775502678612</v>
+        <v>-0.0040080263315282</v>
       </c>
       <c r="M32">
-        <v>0.0199478438690742</v>
+        <v>0.0130069819019509</v>
       </c>
       <c r="N32">
-        <v>0.406249236841572</v>
+        <v>0.270970948443986</v>
       </c>
       <c r="O32" t="s">
         <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q32">
         <v>1874807</v>
@@ -2811,19 +2808,19 @@
         <v>5558313</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2843,37 +2840,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999989672400652</v>
+        <v>0.996649981707236</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.634285714285714</v>
+        <v>0.588571428571429</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.46</v>
+        <v>7.52</v>
       </c>
       <c r="K33">
-        <v>0.0325100133511348</v>
+        <v>0.017904411764706</v>
       </c>
       <c r="L33">
-        <v>0.0201239669421488</v>
+        <v>0.0074506779767754</v>
       </c>
       <c r="M33">
-        <v>0.0445609259699377</v>
+        <v>0.0287058756340589</v>
       </c>
       <c r="N33">
-        <v>0.435791063688134</v>
+        <v>0.238090581977473</v>
       </c>
       <c r="O33" t="s">
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q33">
         <v>1874807</v>
@@ -2882,16 +2879,16 @@
         <v>5558313</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,37 +2908,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.264598963510254</v>
+        <v>0.210458843927602</v>
       </c>
       <c r="G34">
         <v>0.0168539325842697</v>
       </c>
       <c r="H34">
-        <v>0.955056179775281</v>
+        <v>0.949438202247191</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1.083</v>
+        <v>1.092</v>
       </c>
       <c r="K34">
-        <v>0.0036373084563462</v>
+        <v>0.0040937458688073</v>
       </c>
       <c r="L34">
-        <v>-0.0058141659442456</v>
+        <v>-0.0047824873087164</v>
       </c>
       <c r="M34">
-        <v>0.0123232936594337</v>
+        <v>0.0124399219213983</v>
       </c>
       <c r="N34">
-        <v>0.335854889782666</v>
+        <v>0.374885152821187</v>
       </c>
       <c r="O34" t="s">
         <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q34">
         <v>1874807</v>
@@ -2950,19 +2947,19 @@
         <v>5558313</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2979,40 +2976,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.482492126373916</v>
+        <v>0.664350179022155</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.797752808988764</v>
+        <v>0.786516853932584</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.385</v>
+        <v>1.4</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.0049812762425544</v>
       </c>
       <c r="L35">
-        <v>-0.0149604718707576</v>
+        <v>-0.0200175484144481</v>
       </c>
       <c r="M35">
-        <v>0.0132939035486806</v>
+        <v>0.009300346642582599</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.355805445896746</v>
       </c>
       <c r="O35" t="s">
         <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1874807</v>
@@ -3021,19 +3018,19 @@
         <v>5558313</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,13 +3050,13 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0065768463823119</v>
+        <v>0.0030450450185273</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.410112359550562</v>
+        <v>0.421348314606742</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3068,22 +3065,22 @@
         <v>0.039</v>
       </c>
       <c r="K36">
-        <v>0.0005702576112412</v>
+        <v>0.0006126980189247</v>
       </c>
       <c r="L36">
-        <v>0.0001985633294875</v>
+        <v>0.0002220364741641</v>
       </c>
       <c r="M36">
-        <v>0.0010006849315068</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N36">
-        <v>1.46219900318261</v>
+        <v>1.57102056134554</v>
       </c>
       <c r="O36" t="s">
         <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1874807</v>
@@ -3092,19 +3089,19 @@
         <v>5558313</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3124,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.785170180776137</v>
+        <v>0.942894842081668</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3136,25 +3133,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.82</v>
+        <v>2.705</v>
       </c>
       <c r="K37">
-        <v>-0.020075365350354</v>
+        <v>-0.0336984379117501</v>
       </c>
       <c r="L37">
-        <v>-0.0692179997987574</v>
+        <v>-0.0826738328669204</v>
       </c>
       <c r="M37">
-        <v>0.0292139129764893</v>
+        <v>0.0017888711962229</v>
       </c>
       <c r="N37">
-        <v>-0.711892388310424</v>
+        <v>-1.24578328694085</v>
       </c>
       <c r="O37" t="s">
         <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1874807</v>
@@ -3163,19 +3160,19 @@
         <v>5558313</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
